--- a/pred_ohlcv/54_21/2020-01-16 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 XMR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-764.871549227374</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-764.352549227374</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-837.780549227374</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-837.730549227374</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-838.8802492273741</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-838.8802492273741</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-840.3302492273741</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-814.2611492273741</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-814.2611492273741</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-826.297549227374</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-827.1252492273741</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-824.7917492273741</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-774.4184492273741</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-774.4184492273741</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-774.2184492273741</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-796.509449227374</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-795.444749227374</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-795.444749227374</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-794.2665492273741</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-797.9879492273741</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-800.1764492273741</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-800.003149227374</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-887.8376492273741</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-877.1547492273741</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-558.846349227374</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-570.0607492273741</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-571.3563492273742</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-571.3563492273742</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-571.2563492273741</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-572.0513492273741</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-574.8816492273741</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-572.851849227374</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-570.345049227374</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-559.639049227374</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-550.996349227374</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>946.969546596858</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>459.418446596858</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>459.418446596858</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>110.850546596858</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-230.047353403142</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-340.42845716254</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-376.7035571625401</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-376.7035571625401</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-397.7001571625401</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-397.10015716254</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-316.20655716254</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-275.93035716254</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-352.60215716254</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>133.2141086569989</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>267.9032086569989</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>241.3092086569989</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>188.6710086569989</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>123.7325086569989</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>133.9325086569989</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>78.87040865699892</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-300.4535913430011</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-75.39800747203407</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-76.81690747203406</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-76.81690747203406</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-83.64210747203406</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-77.34850747203406</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-857.245193946581</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-857.245193946581</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-855.245193946581</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-854.245193946581</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-853.632393946581</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-854.7753939465811</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-852.7434939465811</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-852.8252939465812</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-908.3217982976472</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-761.8460982976472</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-747.1509982976472</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-747.1509982976472</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-770.5626982976472</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-769.3877982976472</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-762.3864982976472</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 XMR ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-838.8802492273741</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-838.8802492273741</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-839.2108492273741</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-840.3302492273741</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-814.2611492273741</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-814.2611492273741</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-826.297549227374</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-827.1252492273741</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-824.7917492273741</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-774.4184492273741</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-774.4184492273741</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-774.2184492273741</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-774.2184492273741</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-797.167449227374</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-796.509449227374</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-795.444749227374</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-795.444749227374</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-794.2665492273741</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-797.9879492273741</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-800.1764492273741</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-800.003149227374</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-887.8376492273741</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-877.1547492273741</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-558.846349227374</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-570.4177492273741</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-566.4177492273741</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-570.0607492273741</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-571.3563492273742</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-571.3563492273742</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-571.2563492273741</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-572.0513492273741</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-568.8816492273741</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-574.8816492273741</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-572.851849227374</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-570.345049227374</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-559.639049227374</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-550.996349227374</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>946.969546596858</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>459.418446596858</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>459.418446596858</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>110.850546596858</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-230.047353403142</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-340.42845716254</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-376.7035571625401</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-376.7035571625401</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-397.7001571625401</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-397.10015716254</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-316.20655716254</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-275.93035716254</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-352.60215716254</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>133.2141086569989</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>267.9032086569989</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>241.3092086569989</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>188.6710086569989</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>123.7325086569989</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>133.9325086569989</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>78.60520865699893</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>78.87040865699892</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-300.4535913430011</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-341.6950913430011</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-75.39800747203407</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-76.81690747203406</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-76.81690747203406</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-83.64210747203406</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-857.245193946581</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-857.245193946581</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-855.245193946581</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-854.245193946581</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-853.632393946581</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-854.7753939465811</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-852.7434939465811</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-852.8252939465812</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-908.3217982976472</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-761.8460982976472</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-747.1509982976472</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-747.1509982976472</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-770.5626982976472</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-769.3877982976472</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-762.3864982976472</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
